--- a/tmp_sheets/MIGRATION_Items_Markup_ERROR.xlsx
+++ b/tmp_sheets/MIGRATION_Items_Markup_ERROR.xlsx
@@ -479,136 +479,180 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FGT1</t>
+          <t>active=True,name=Item_Code,dataType=text,title=Code,updateCriteria=true</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Club</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>active=True,name=Name,dataType=text</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>active=True,name=Special_Rules,dataType=text</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>active=True,name=Range,dataType=number</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>active=True,name=Damage,dataType=number</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>active=True,name=Protection,dataType=number,title=Protection</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>active=True,name=Item_Value,dataType=number,title=Value</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Fighting Weapon</t>
+          <t>active=True,name=Type,dataType=entity:Item_Types.Type</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Medieval</t>
+          <t>active=True,name=Tech_Age,dataType=entity:Technological_Ages.Age</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>active=True,name=Released,dataType=checkbox,title=Released</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>-1</v>
+          <t>active=True,name=Weapon,dataType=checkbox,title=Weapon</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>active=True,name=Armor,dataType=checkbox,title=Armor</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>active=True,name=Shield,dataType=checkbox,title=Shield</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>name=visibilityGroups,dataType=array</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FGT2</t>
+          <t>Item_Code</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dagger</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Special_Rules</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Item_Value</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Fighting Weapon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Medieval</t>
+          <t>Tech_Age</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Released</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>-1</v>
+          <t>Weapon</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Armor</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Shield</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>visibilityGroups</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGT3</t>
+          <t>FGT1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Spear / Pike / Halberd</t>
+          <t>Club</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -638,16 +682,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FGT4</t>
+          <t>FGT2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shortsword</t>
+          <t>Dagger</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -655,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -691,30 +735,30 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FGT6</t>
+          <t>FGT3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Great Sword (2H)</t>
+          <t>Spear / Pike / Halberd</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="E6" t="n">
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -744,34 +788,34 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RNG1</t>
+          <t>FGT4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sling (x1)</t>
+          <t>Shortsword</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ranged Weapon</t>
+          <t>Fighting Weapon</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -797,34 +841,34 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SH1</t>
+          <t>FGT5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Buckler</t>
+          <t>Longsword</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0</v>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Shield</t>
+          <t>Fighting Weapon</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,47 +881,47 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FGT6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Great Sword (2H)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ARM1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Heavy Cloth Armor</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Armor</t>
+          <t>Fighting Weapon</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -890,12 +934,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
         <v>-1</v>
@@ -903,34 +947,34 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARM2</t>
+          <t>RNG1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Leather Armor</t>
+          <t>Sling (x1)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Armor</t>
+          <t>Ranged Weapon</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -943,12 +987,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>-1</v>
@@ -956,23 +1000,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ACC1</t>
+          <t>SH1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Backpack</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Allows the character to carry 4 item cards over their carry capacity. Limit 1 per character.</t>
-        </is>
-      </c>
+          <t>Buckler</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -980,14 +1020,14 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Accessory</t>
+          <t>Shield</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1002,23 +1042,27 @@
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="O11" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARM3</t>
+          <t>ARM1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Studded Leather Armor</t>
+          <t>Heavy Cloth Armor</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1029,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1062,16 +1106,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARM4</t>
+          <t>ARM2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chain Mail</t>
+          <t>Leather Armor</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1082,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1115,19 +1159,23 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARM5</t>
+          <t>ACC1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Plate Mail</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Backpack</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Allows the character to carry 4 item cards over their carry capacity. Limit 1 per character.</t>
+        </is>
+      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1135,14 +1183,14 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Armor</t>
+          <t>Accessory</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1156,11 +1204,7 @@
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
         <v>-1</v>
@@ -1168,34 +1212,34 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FGT7</t>
+          <t>ARM3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Warhammer (2H)</t>
+          <t>Studded Leather Armor</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="b">
-        <v>1</v>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Fighting Weapon</t>
+          <t>Armor</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1208,12 +1252,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
         <v>-1</v>
@@ -1221,34 +1265,34 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FGT8</t>
+          <t>ARM4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Battle Axe</t>
+          <t>Chain Mail</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="b">
-        <v>1</v>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Fighting Weapon</t>
+          <t>Armor</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1261,12 +1305,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
         <v>-1</v>
@@ -1274,34 +1318,34 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FGT9</t>
+          <t>ARM5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wizards Staff (2H)</t>
+          <t>Plate Mail</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="b">
-        <v>1</v>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Fighting Weapon</t>
+          <t>Armor</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1314,12 +1358,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
         <v>-1</v>
@@ -1327,38 +1371,34 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RNG2</t>
+          <t>FGT7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Short Bow (2H)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ammo: Arrows</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>8</v>
+          <t>Warhammer (2H)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ranged Weapon</t>
+          <t>Fighting Weapon</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1384,38 +1424,34 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RNG3</t>
+          <t>FGT8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Long Bow (2H)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Ammo: Arrows</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>12</v>
+          <t>Battle Axe</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ranged Weapon</t>
+          <t>Fighting Weapon</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1441,38 +1477,34 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RNG4</t>
+          <t>FGT9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mini-Crossbow (2H)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Ammo: Bolts</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5</v>
+          <t>Wizards Staff (2H)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ranged Weapon</t>
+          <t>Fighting Weapon</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1498,34 +1530,34 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RNG5</t>
+          <t>RNG2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Crossbow (2H)</t>
+          <t>Short Bow (2H)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ammo: Bolts</t>
+          <t>Ammo: Arrows</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1555,34 +1587,34 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RNG6</t>
+          <t>RNG3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Repeater Crossbow (2H, x2)</t>
+          <t>Long Bow (2H)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ammo: Bolts</t>
+          <t>Ammo: Arrows</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1612,34 +1644,34 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RNG7</t>
+          <t>RNG4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Snaplock Musket (2H)</t>
+          <t>Mini-Crossbow (2H)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ammo: Shot</t>
+          <t>Ammo: Bolts</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1669,32 +1701,38 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SH2</t>
+          <t>RNG5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kite Shield</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+          <t>Crossbow (2H)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ammo: Bolts</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Shield</t>
+          <t>Ranged Weapon</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1707,45 +1745,51 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ACC2</t>
+          <t>RNG6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ring of Fire</t>
+          <t>Repeater Crossbow (2H, x2)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Once per day, wearer may use an Interact action to shoot a Fireball spell at a target. This occurs without rolling an Ability Test.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>Ammo: Bolts</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="H25" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Accessory</t>
+          <t>Ranged Weapon</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1758,7 +1802,11 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
@@ -1767,32 +1815,38 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ACC3</t>
+          <t>RNG7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ring of Lightning</t>
+          <t>Snaplock Musket (2H)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Once per day, wearer may use an Interact action to inflict 2D6 damage to up to 3 enemies that are visible to the wearer, within 10 spaces of the wearer and adjacent to each-other.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>Ammo: Shot</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Accessory</t>
+          <t>Ranged Weapon</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1805,7 +1859,11 @@
           <t>True</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
@@ -1814,34 +1872,32 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ACC4</t>
+          <t>SH2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lantern</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Provides light that enables characters to see up to 5 spaces in the dark.</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Kite Shield</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Accessory</t>
+          <t>Shield</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1856,41 +1912,43 @@
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="O27" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CON1</t>
+          <t>ACC2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bandages</t>
+          <t>Ring of Fire</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>During a scene, restore 2D6 Hitpoints Points to yourself when not adjacent to an enemy using an Interact action. 1 Charge.</t>
-        </is>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
+          <t>Once per day, wearer may use an Interact action to shoot a Fireball spell at a target. This occurs without rolling an Ability Test.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Consumable</t>
+          <t>Accessory</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1912,33 +1970,32 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CON2</t>
+          <t>ACC3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sleeping Dart</t>
+          <t>Ring of Lightning</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Declare before firing a dart, arrow or bolt that you are firing a sleeping dart. If hit, the target falls asleep. This effect can only impact biological (living) creatures.
-1 charge</t>
+          <t>Once per day, wearer may use an Interact action to inflict 2D6 damage to up to 3 enemies that are visible to the wearer, within 10 spaces of the wearer and adjacent to each-other.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Consumable</t>
+          <t>Accessory</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1960,32 +2017,34 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CON3</t>
+          <t>ACC4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Exploding Arrow</t>
+          <t>Lantern</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Declare before firing an arrow or dart. If hit, the target and any adjacent characters suffer 2D6 damage. 3 Charges</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>Provides light that enables characters to see up to 5 spaces in the dark.</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Consumable</t>
+          <t>Accessory</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2007,28 +2066,30 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CON4</t>
+          <t>CON1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Keg of Powder</t>
+          <t>Bandages</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Drop this item and then characters may use an Interact action within 10 spaces of a dropped Keg to set it off. The explosion causes 3D6 damage to anything within 3 spaces of the detonation and causes Knock-Back. 1 Charge.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>During a scene, restore 2D6 Hitpoints Points to yourself when not adjacent to an enemy using an Interact action. 1 Charge.</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2054,28 +2115,29 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CON5</t>
+          <t>CON2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Small Healing Potion</t>
+          <t>Sleeping Dart</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>When consumed this potion restores D6 Hitpoints. 1 Charge</t>
+          <t>Declare before firing a dart, arrow or bolt that you are firing a sleeping dart. If hit, the target falls asleep. This effect can only impact biological (living) creatures.
+1 charge</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2101,28 +2163,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CON6</t>
+          <t>CON3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Healing Potion</t>
+          <t>Exploding Arrow</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>When consumed this potion restores 2D6 Hitpoints. 1 Charge</t>
+          <t>Declare before firing an arrow or dart. If hit, the target and any adjacent characters suffer 2D6 damage. 3 Charges</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2142,68 +2204,144 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CON4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Keg of Powder</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Drop this item and then characters may use an Interact action within 10 spaces of a dropped Keg to set it off. The explosion causes 3D6 damage to anything within 3 spaces of the detonation and causes Knock-Back. 1 Charge.</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>80</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Consumable</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Medieval</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>name=visibilityGroups,dataType=array</t>
-        </is>
+      <c r="O34" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CON5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Small Healing Potion</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>When consumed this potion restores D6 Hitpoints. 1 Charge</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Consumable</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Medieval</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>visibilityGroups</t>
-        </is>
+      <c r="O35" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CON6</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Healing Potion</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>When consumed this potion restores 2D6 Hitpoints. 1 Charge</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>50</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Consumable</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Medieval</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
